--- a/data_quarter/zb/建筑业/建筑业企业签订合同情况.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业签订合同情况.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +449,26 @@
           <t>建筑业企业签订合同金额_累计值</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业上年结转合同额</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业本年新签合同额</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业签订合同金额</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -465,43 +480,70 @@
       <c r="D2" t="n">
         <v>17460.24</v>
       </c>
+      <c r="E2" t="n">
+        <v>12560.99</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4899.25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17460.24</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14426.03</v>
+        <v>14275.96</v>
       </c>
       <c r="C3" t="n">
-        <v>18088.59</v>
+        <v>11802.17</v>
       </c>
       <c r="D3" t="n">
-        <v>32514.62</v>
+        <v>26078.13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1714.969999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6902.92</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8617.889999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14275.96</v>
+        <v>14426.03</v>
       </c>
       <c r="C4" t="n">
-        <v>11802.17</v>
+        <v>18088.59</v>
       </c>
       <c r="D4" t="n">
-        <v>26078.13</v>
+        <v>32514.62</v>
+      </c>
+      <c r="E4" t="n">
+        <v>150.0700000000015</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6286.42</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6436.489999999998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -513,11 +555,20 @@
       <c r="D5" t="n">
         <v>43914.27</v>
       </c>
+      <c r="E5" t="n">
+        <v>1389.449999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10010.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11399.65</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -529,43 +580,70 @@
       <c r="D6" t="n">
         <v>20931.96</v>
       </c>
+      <c r="E6" t="n">
+        <v>15396.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5535.46</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20931.96</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18617.22</v>
+        <v>17452.07</v>
       </c>
       <c r="C7" t="n">
-        <v>21645.79</v>
+        <v>13912.83</v>
       </c>
       <c r="D7" t="n">
-        <v>40263.01</v>
+        <v>31364.89</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2055.57</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8377.369999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10432.93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17452.07</v>
+        <v>18617.22</v>
       </c>
       <c r="C8" t="n">
-        <v>13912.83</v>
+        <v>21645.79</v>
       </c>
       <c r="D8" t="n">
-        <v>31364.89</v>
+        <v>40263.01</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1165.150000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7732.960000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8898.120000000003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -577,11 +655,20 @@
       <c r="D9" t="n">
         <v>53240.39</v>
       </c>
+      <c r="E9" t="n">
+        <v>898.9399999999987</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12078.44</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12977.38</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -593,43 +680,70 @@
       <c r="D10" t="n">
         <v>27794.09</v>
       </c>
+      <c r="E10" t="n">
+        <v>1257.93</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7020</v>
+      </c>
+      <c r="G10" t="n">
+        <v>27794.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23917.7</v>
+        <v>22994.56</v>
       </c>
       <c r="C11" t="n">
-        <v>27167.71</v>
+        <v>16965.23</v>
       </c>
       <c r="D11" t="n">
-        <v>51085.41</v>
+        <v>39959.79</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2220.470000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9945.23</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12165.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22994.56</v>
+        <v>23917.7</v>
       </c>
       <c r="C12" t="n">
-        <v>16965.23</v>
+        <v>27167.71</v>
       </c>
       <c r="D12" t="n">
-        <v>39959.79</v>
+        <v>51085.41</v>
+      </c>
+      <c r="E12" t="n">
+        <v>923.1399999999994</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10202.48</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11125.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -641,11 +755,20 @@
       <c r="D13" t="n">
         <v>65568.16</v>
       </c>
+      <c r="E13" t="n">
+        <v>661.4699999999975</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13821.28</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14482.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -657,43 +780,70 @@
       <c r="D14" t="n">
         <v>33682.52924</v>
       </c>
+      <c r="E14" t="n">
+        <v>1087.054680000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8016.30456</v>
+      </c>
+      <c r="G14" t="n">
+        <v>33682.52924</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28746.88623</v>
+        <v>28036.27</v>
       </c>
       <c r="C15" t="n">
-        <v>33428.60046</v>
+        <v>20511.54</v>
       </c>
       <c r="D15" t="n">
-        <v>62175.48669</v>
+        <v>48547.81</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2370.045320000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12495.23544</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14865.28075999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28036.27</v>
+        <v>28746.88623</v>
       </c>
       <c r="C16" t="n">
-        <v>20511.54</v>
+        <v>33428.60046</v>
       </c>
       <c r="D16" t="n">
-        <v>48547.81</v>
+        <v>62175.48669</v>
+      </c>
+      <c r="E16" t="n">
+        <v>710.6162299999996</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12917.06046</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13627.67669</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -705,11 +855,20 @@
       <c r="D17" t="n">
         <v>80274.18187</v>
       </c>
+      <c r="E17" t="n">
+        <v>559.4525399999984</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17539.24264</v>
+      </c>
+      <c r="G17" t="n">
+        <v>18098.69518</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -721,43 +880,70 @@
       <c r="D18" t="n">
         <v>43510.52</v>
       </c>
+      <c r="E18" t="n">
+        <v>3342.271230000002</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10861.91</v>
+      </c>
+      <c r="G18" t="n">
+        <v>43510.52</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36115.15</v>
+        <v>35186.9</v>
       </c>
       <c r="C19" t="n">
-        <v>41836.17</v>
+        <v>26721.42</v>
       </c>
       <c r="D19" t="n">
-        <v>77951.32000000001</v>
+        <v>61908.32</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2538.290000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15859.51</v>
+      </c>
+      <c r="G19" t="n">
+        <v>18397.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35186.9</v>
+        <v>36115.15</v>
       </c>
       <c r="C20" t="n">
-        <v>26721.42</v>
+        <v>41836.17</v>
       </c>
       <c r="D20" t="n">
-        <v>61908.32</v>
+        <v>77951.32000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>928.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15114.75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>16043.00000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -769,11 +955,20 @@
       <c r="D21" t="n">
         <v>101141.85</v>
       </c>
+      <c r="E21" t="n">
+        <v>1607.309999999998</v>
+      </c>
+      <c r="F21" t="n">
+        <v>21583.22</v>
+      </c>
+      <c r="G21" t="n">
+        <v>23190.53</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -785,43 +980,70 @@
       <c r="D22" t="n">
         <v>55444.25</v>
       </c>
+      <c r="E22" t="n">
+        <v>4427.489999999998</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13294.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>55444.25</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44913</v>
+        <v>45144.9</v>
       </c>
       <c r="C23" t="n">
-        <v>53457</v>
+        <v>32761.8</v>
       </c>
       <c r="D23" t="n">
-        <v>98370</v>
+        <v>77906.8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2994.950000000004</v>
+      </c>
+      <c r="F23" t="n">
+        <v>19467.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>22462.55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45144.9</v>
+        <v>44913</v>
       </c>
       <c r="C24" t="n">
-        <v>32761.8</v>
+        <v>53457</v>
       </c>
       <c r="D24" t="n">
-        <v>77906.8</v>
+        <v>98370</v>
+      </c>
+      <c r="E24" t="n">
+        <v>44913</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20695.2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>20463.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -833,11 +1055,20 @@
       <c r="D25" t="n">
         <v>131931.4</v>
       </c>
+      <c r="E25" t="n">
+        <v>2119.800000000003</v>
+      </c>
+      <c r="F25" t="n">
+        <v>31441.60000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>33561.39999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -849,43 +1080,70 @@
       <c r="D26" t="n">
         <v>73412.3</v>
       </c>
+      <c r="E26" t="n">
+        <v>8767.299999999996</v>
+      </c>
+      <c r="F26" t="n">
+        <v>17612.3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>73412.3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>60409.39</v>
+        <v>59548.4</v>
       </c>
       <c r="C27" t="n">
-        <v>69691.42999999999</v>
+        <v>42982.4</v>
       </c>
       <c r="D27" t="n">
-        <v>130100.82</v>
+        <v>102530.8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3748.300000000003</v>
+      </c>
+      <c r="F27" t="n">
+        <v>25370.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>29118.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59548.4</v>
+        <v>60409.39</v>
       </c>
       <c r="C28" t="n">
-        <v>42982.4</v>
+        <v>69691.42999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>102530.8</v>
+        <v>130100.82</v>
+      </c>
+      <c r="E28" t="n">
+        <v>860.989999999998</v>
+      </c>
+      <c r="F28" t="n">
+        <v>26709.02999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>27570.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -897,11 +1155,20 @@
       <c r="D29" t="n">
         <v>169074.32</v>
       </c>
+      <c r="E29" t="n">
+        <v>980.9800000000032</v>
+      </c>
+      <c r="F29" t="n">
+        <v>37992.52</v>
+      </c>
+      <c r="G29" t="n">
+        <v>38973.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -913,43 +1180,70 @@
       <c r="D30" t="n">
         <v>100266.66</v>
       </c>
+      <c r="E30" t="n">
+        <v>16912.10999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>21964.18</v>
+      </c>
+      <c r="G30" t="n">
+        <v>100266.66</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79623.07000000001</v>
+        <v>80506.92</v>
       </c>
       <c r="C31" t="n">
-        <v>83461.28999999999</v>
+        <v>52499.49</v>
       </c>
       <c r="D31" t="n">
-        <v>163084.36</v>
+        <v>133006.41</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2204.440000000002</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30535.31</v>
+      </c>
+      <c r="G31" t="n">
+        <v>32739.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80506.92</v>
+        <v>79623.07000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>52499.49</v>
+        <v>83461.28999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>133006.41</v>
+        <v>163084.36</v>
+      </c>
+      <c r="E32" t="n">
+        <v>79623.07000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>30961.8</v>
+      </c>
+      <c r="G32" t="n">
+        <v>30077.94999999998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -961,11 +1255,20 @@
       <c r="D33" t="n">
         <v>208531.68</v>
       </c>
+      <c r="E33" t="n">
+        <v>1986.319999999992</v>
+      </c>
+      <c r="F33" t="n">
+        <v>43461</v>
+      </c>
+      <c r="G33" t="n">
+        <v>45447.32000000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -977,43 +1280,70 @@
       <c r="D34" t="n">
         <v>116458.82</v>
       </c>
+      <c r="E34" t="n">
+        <v>10735.12</v>
+      </c>
+      <c r="F34" t="n">
+        <v>24114.3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>116458.82</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97810.87</v>
+        <v>97275.42</v>
       </c>
       <c r="C35" t="n">
-        <v>93822.13</v>
+        <v>58494.39</v>
       </c>
       <c r="D35" t="n">
-        <v>191632.99</v>
+        <v>155769.81</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4930.910000000003</v>
+      </c>
+      <c r="F35" t="n">
+        <v>34380.09</v>
+      </c>
+      <c r="G35" t="n">
+        <v>39310.98999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97275.42</v>
+        <v>97810.87</v>
       </c>
       <c r="C36" t="n">
-        <v>58494.39</v>
+        <v>93822.13</v>
       </c>
       <c r="D36" t="n">
-        <v>155769.81</v>
+        <v>191632.99</v>
+      </c>
+      <c r="E36" t="n">
+        <v>535.4499999999971</v>
+      </c>
+      <c r="F36" t="n">
+        <v>35327.74000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>35863.17999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1025,11 +1355,20 @@
       <c r="D37" t="n">
         <v>245687.5</v>
       </c>
+      <c r="E37" t="n">
+        <v>2846.389999999999</v>
+      </c>
+      <c r="F37" t="n">
+        <v>51208.10000000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>54054.51000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1041,43 +1380,70 @@
       <c r="D38" t="n">
         <v>135725.24</v>
       </c>
+      <c r="E38" t="n">
+        <v>5362.62000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>29705.36</v>
+      </c>
+      <c r="G38" t="n">
+        <v>135725.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>112350.24</v>
+        <v>111434.81</v>
       </c>
       <c r="C39" t="n">
-        <v>116970.29</v>
+        <v>73763.60000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>229320.53</v>
+        <v>185198.42</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5414.929999999993</v>
+      </c>
+      <c r="F39" t="n">
+        <v>44058.24000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>49473.18000000002</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111434.81</v>
+        <v>112350.24</v>
       </c>
       <c r="C40" t="n">
-        <v>73763.60000000001</v>
+        <v>116970.29</v>
       </c>
       <c r="D40" t="n">
-        <v>185198.42</v>
+        <v>229320.53</v>
+      </c>
+      <c r="E40" t="n">
+        <v>915.4300000000076</v>
+      </c>
+      <c r="F40" t="n">
+        <v>43206.68999999999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>44122.10999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1089,11 +1455,20 @@
       <c r="D41" t="n">
         <v>289674.06</v>
       </c>
+      <c r="E41" t="n">
+        <v>2474.970000000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>57878.56000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>60353.53</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1105,43 +1480,70 @@
       <c r="D42" t="n">
         <v>157456.64</v>
       </c>
+      <c r="E42" t="n">
+        <v>9049.539999999994</v>
+      </c>
+      <c r="F42" t="n">
+        <v>33581.89</v>
+      </c>
+      <c r="G42" t="n">
+        <v>157456.64</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>135556.3</v>
+        <v>134021.99</v>
       </c>
       <c r="C43" t="n">
-        <v>125700.63</v>
+        <v>82861.69</v>
       </c>
       <c r="D43" t="n">
-        <v>261256.93</v>
+        <v>216883.69</v>
+      </c>
+      <c r="E43" t="n">
+        <v>10147.23999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>49279.8</v>
+      </c>
+      <c r="G43" t="n">
+        <v>59427.04999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>134021.99</v>
+        <v>135556.3</v>
       </c>
       <c r="C44" t="n">
-        <v>82861.69</v>
+        <v>125700.63</v>
       </c>
       <c r="D44" t="n">
-        <v>216883.69</v>
+        <v>261256.93</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1534.309999999998</v>
+      </c>
+      <c r="F44" t="n">
+        <v>42838.94</v>
+      </c>
+      <c r="G44" t="n">
+        <v>44373.23999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1153,11 +1555,20 @@
       <c r="D45" t="n">
         <v>323613.77</v>
       </c>
+      <c r="E45" t="n">
+        <v>3374.150000000023</v>
+      </c>
+      <c r="F45" t="n">
+        <v>58982.67999999999</v>
+      </c>
+      <c r="G45" t="n">
+        <v>62356.84000000003</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1169,43 +1580,70 @@
       <c r="D46" t="n">
         <v>172031.45</v>
       </c>
+      <c r="E46" t="n">
+        <v>844.0599999999977</v>
+      </c>
+      <c r="F46" t="n">
+        <v>32256.94</v>
+      </c>
+      <c r="G46" t="n">
+        <v>172031.45</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>150135.27</v>
+        <v>147462.93</v>
       </c>
       <c r="C47" t="n">
-        <v>117178.74</v>
+        <v>75474.81</v>
       </c>
       <c r="D47" t="n">
-        <v>267314.01</v>
+        <v>222937.74</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7688.419999999984</v>
+      </c>
+      <c r="F47" t="n">
+        <v>43217.87</v>
+      </c>
+      <c r="G47" t="n">
+        <v>50906.28999999998</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>147462.93</v>
+        <v>150135.27</v>
       </c>
       <c r="C48" t="n">
-        <v>75474.81</v>
+        <v>117178.74</v>
       </c>
       <c r="D48" t="n">
-        <v>222937.74</v>
+        <v>267314.01</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2672.339999999997</v>
+      </c>
+      <c r="F48" t="n">
+        <v>41703.93000000001</v>
+      </c>
+      <c r="G48" t="n">
+        <v>44376.27000000002</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1217,11 +1655,20 @@
       <c r="D49" t="n">
         <v>338001.42</v>
       </c>
+      <c r="E49" t="n">
+        <v>3464.600000000006</v>
+      </c>
+      <c r="F49" t="n">
+        <v>67222.8</v>
+      </c>
+      <c r="G49" t="n">
+        <v>70687.40999999997</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1233,43 +1680,70 @@
       <c r="D50" t="n">
         <v>184072.67</v>
       </c>
+      <c r="E50" t="n">
+        <v>147652.73</v>
+      </c>
+      <c r="F50" t="n">
+        <v>36419.95</v>
+      </c>
+      <c r="G50" t="n">
+        <v>184072.67</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>158419.33</v>
+        <v>156559.81</v>
       </c>
       <c r="C51" t="n">
-        <v>136756.75</v>
+        <v>87849.28999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>295176.08</v>
+        <v>244409.11</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8907.079999999987</v>
+      </c>
+      <c r="F51" t="n">
+        <v>51429.34</v>
+      </c>
+      <c r="G51" t="n">
+        <v>60336.43999999997</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>156559.81</v>
+        <v>158419.33</v>
       </c>
       <c r="C52" t="n">
-        <v>87849.28999999999</v>
+        <v>136756.75</v>
       </c>
       <c r="D52" t="n">
-        <v>244409.11</v>
+        <v>295176.08</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1859.51999999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>48907.46000000001</v>
+      </c>
+      <c r="G52" t="n">
+        <v>50766.97000000003</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1281,11 +1755,20 @@
       <c r="D53" t="n">
         <v>374272.24</v>
       </c>
+      <c r="E53" t="n">
+        <v>3084.610000000015</v>
+      </c>
+      <c r="F53" t="n">
+        <v>76011.54999999999</v>
+      </c>
+      <c r="G53" t="n">
+        <v>79096.15999999997</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1297,43 +1780,70 @@
       <c r="D54" t="n">
         <v>218649.82</v>
       </c>
+      <c r="E54" t="n">
+        <v>12651.51000000001</v>
+      </c>
+      <c r="F54" t="n">
+        <v>44494.37</v>
+      </c>
+      <c r="G54" t="n">
+        <v>218649.82</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>184929.46</v>
+        <v>181581.9</v>
       </c>
       <c r="C55" t="n">
-        <v>166849.85</v>
+        <v>107079.04</v>
       </c>
       <c r="D55" t="n">
-        <v>351779.32</v>
+        <v>288660.95</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7426.449999999983</v>
+      </c>
+      <c r="F55" t="n">
+        <v>62584.66999999999</v>
+      </c>
+      <c r="G55" t="n">
+        <v>70011.13</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>181581.9</v>
+        <v>184929.46</v>
       </c>
       <c r="C56" t="n">
-        <v>107079.04</v>
+        <v>166849.85</v>
       </c>
       <c r="D56" t="n">
-        <v>288660.95</v>
+        <v>351779.32</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3347.559999999998</v>
+      </c>
+      <c r="F56" t="n">
+        <v>59770.81000000001</v>
+      </c>
+      <c r="G56" t="n">
+        <v>63118.37</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1345,11 +1855,20 @@
       <c r="D57" t="n">
         <v>439524.36</v>
       </c>
+      <c r="E57" t="n">
+        <v>184858.64</v>
+      </c>
+      <c r="F57" t="n">
+        <v>87815.85999999999</v>
+      </c>
+      <c r="G57" t="n">
+        <v>87745.03999999998</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1361,43 +1880,70 @@
       <c r="D58" t="n">
         <v>259316.79</v>
       </c>
+      <c r="E58" t="n">
+        <v>22675.60999999999</v>
+      </c>
+      <c r="F58" t="n">
+        <v>51782.53</v>
+      </c>
+      <c r="G58" t="n">
+        <v>259316.79</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>222093.49</v>
+        <v>217975.91</v>
       </c>
       <c r="C59" t="n">
-        <v>179288.69</v>
+        <v>117401.92</v>
       </c>
       <c r="D59" t="n">
-        <v>401382.19</v>
+        <v>335377.82</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10441.66</v>
+      </c>
+      <c r="F59" t="n">
+        <v>65619.39</v>
+      </c>
+      <c r="G59" t="n">
+        <v>76061.03</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>217975.91</v>
+        <v>222093.49</v>
       </c>
       <c r="C60" t="n">
-        <v>117401.92</v>
+        <v>179288.69</v>
       </c>
       <c r="D60" t="n">
-        <v>335377.82</v>
+        <v>401382.19</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4117.579999999987</v>
+      </c>
+      <c r="F60" t="n">
+        <v>61886.77</v>
+      </c>
+      <c r="G60" t="n">
+        <v>66004.37</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1409,11 +1955,20 @@
       <c r="D61" t="n">
         <v>494409.05</v>
       </c>
+      <c r="E61" t="n">
+        <v>221554.98</v>
+      </c>
+      <c r="F61" t="n">
+        <v>93565.38</v>
+      </c>
+      <c r="G61" t="n">
+        <v>93026.85999999999</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1425,43 +1980,70 @@
       <c r="D62" t="n">
         <v>293960.64</v>
       </c>
+      <c r="E62" t="n">
+        <v>17193.32999999999</v>
+      </c>
+      <c r="F62" t="n">
+        <v>55212.33</v>
+      </c>
+      <c r="G62" t="n">
+        <v>293960.64</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>249045.82</v>
+        <v>243672.52</v>
       </c>
       <c r="C63" t="n">
-        <v>187135.27</v>
+        <v>120305.68</v>
       </c>
       <c r="D63" t="n">
-        <v>436181.09</v>
+        <v>363978.2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4924.209999999992</v>
+      </c>
+      <c r="F63" t="n">
+        <v>65093.34999999999</v>
+      </c>
+      <c r="G63" t="n">
+        <v>70017.56</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>243672.52</v>
+        <v>249045.82</v>
       </c>
       <c r="C64" t="n">
-        <v>120305.68</v>
+        <v>187135.27</v>
       </c>
       <c r="D64" t="n">
-        <v>363978.2</v>
+        <v>436181.09</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5373.300000000017</v>
+      </c>
+      <c r="F64" t="n">
+        <v>66829.59</v>
+      </c>
+      <c r="G64" t="n">
+        <v>72202.89000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1473,11 +2055,20 @@
       <c r="D65" t="n">
         <v>545038.89</v>
       </c>
+      <c r="E65" t="n">
+        <v>6758.079999999987</v>
+      </c>
+      <c r="F65" t="n">
+        <v>102099.72</v>
+      </c>
+      <c r="G65" t="n">
+        <v>108857.8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1489,43 +2080,70 @@
       <c r="D66" t="n">
         <v>307949.51</v>
       </c>
+      <c r="E66" t="n">
+        <v>5082.309999999998</v>
+      </c>
+      <c r="F66" t="n">
+        <v>47063.3</v>
+      </c>
+      <c r="G66" t="n">
+        <v>307949.51</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>263268.08</v>
+        <v>264883.31</v>
       </c>
       <c r="C67" t="n">
-        <v>203529.18</v>
+        <v>125992.08</v>
       </c>
       <c r="D67" t="n">
-        <v>466797.26</v>
+        <v>390875.38</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3997.100000000006</v>
+      </c>
+      <c r="F67" t="n">
+        <v>78928.78</v>
+      </c>
+      <c r="G67" t="n">
+        <v>82925.87</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>264883.31</v>
+        <v>263268.08</v>
       </c>
       <c r="C68" t="n">
-        <v>125992.08</v>
+        <v>203529.18</v>
       </c>
       <c r="D68" t="n">
-        <v>390875.38</v>
+        <v>466797.26</v>
+      </c>
+      <c r="E68" t="n">
+        <v>263268.08</v>
+      </c>
+      <c r="F68" t="n">
+        <v>77537.09999999999</v>
+      </c>
+      <c r="G68" t="n">
+        <v>75921.88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1537,11 +2155,20 @@
       <c r="D69" t="n">
         <v>595576.76</v>
       </c>
+      <c r="E69" t="n">
+        <v>7134.260000000009</v>
+      </c>
+      <c r="F69" t="n">
+        <v>121645.24</v>
+      </c>
+      <c r="G69" t="n">
+        <v>128779.5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1553,43 +2180,70 @@
       <c r="D70" t="n">
         <v>345047.85</v>
       </c>
+      <c r="E70" t="n">
+        <v>12568.64999999997</v>
+      </c>
+      <c r="F70" t="n">
+        <v>62076.86</v>
+      </c>
+      <c r="G70" t="n">
+        <v>345047.85</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>303250.99</v>
+        <v>299480.45</v>
       </c>
       <c r="C71" t="n">
-        <v>219413.7</v>
+        <v>144134.03</v>
       </c>
       <c r="D71" t="n">
-        <v>522664.69</v>
+        <v>443614.48</v>
+      </c>
+      <c r="E71" t="n">
+        <v>16509.46000000002</v>
+      </c>
+      <c r="F71" t="n">
+        <v>82057.17</v>
+      </c>
+      <c r="G71" t="n">
+        <v>98566.63</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>299480.45</v>
+        <v>303250.99</v>
       </c>
       <c r="C72" t="n">
-        <v>144134.03</v>
+        <v>219413.7</v>
       </c>
       <c r="D72" t="n">
-        <v>443614.48</v>
+        <v>522664.69</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3770.539999999979</v>
+      </c>
+      <c r="F72" t="n">
+        <v>75279.67000000001</v>
+      </c>
+      <c r="G72" t="n">
+        <v>79050.21000000002</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1600,6 +2254,15 @@
       </c>
       <c r="D73" t="n">
         <v>656886.74</v>
+      </c>
+      <c r="E73" t="n">
+        <v>9077.650000000023</v>
+      </c>
+      <c r="F73" t="n">
+        <v>125144.4</v>
+      </c>
+      <c r="G73" t="n">
+        <v>134222.05</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/建筑业/建筑业企业签订合同情况.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业签订合同情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,21 +449,6 @@
           <t>建筑业企业签订合同金额_累计值</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业上年结转合同额</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业本年新签合同额</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业签订合同金额</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -480,64 +465,37 @@
       <c r="D2" t="n">
         <v>17460.24</v>
       </c>
-      <c r="E2" t="n">
-        <v>12560.99</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4899.25</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17460.24</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14275.96</v>
+        <v>14426.03</v>
       </c>
       <c r="C3" t="n">
-        <v>11802.17</v>
+        <v>18088.59</v>
       </c>
       <c r="D3" t="n">
-        <v>26078.13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1714.969999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6902.92</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8617.889999999999</v>
+        <v>32514.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14426.03</v>
+        <v>14275.96</v>
       </c>
       <c r="C4" t="n">
-        <v>18088.59</v>
+        <v>11802.17</v>
       </c>
       <c r="D4" t="n">
-        <v>32514.62</v>
-      </c>
-      <c r="E4" t="n">
-        <v>150.0700000000015</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6286.42</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6436.489999999998</v>
+        <v>26078.13</v>
       </c>
     </row>
     <row r="5">
@@ -555,15 +513,6 @@
       <c r="D5" t="n">
         <v>43914.27</v>
       </c>
-      <c r="E5" t="n">
-        <v>1389.449999999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10010.2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>11399.65</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -580,64 +529,37 @@
       <c r="D6" t="n">
         <v>20931.96</v>
       </c>
-      <c r="E6" t="n">
-        <v>15396.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5535.46</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20931.96</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17452.07</v>
+        <v>18617.22</v>
       </c>
       <c r="C7" t="n">
-        <v>13912.83</v>
+        <v>21645.79</v>
       </c>
       <c r="D7" t="n">
-        <v>31364.89</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2055.57</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8377.369999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10432.93</v>
+        <v>40263.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18617.22</v>
+        <v>17452.07</v>
       </c>
       <c r="C8" t="n">
-        <v>21645.79</v>
+        <v>13912.83</v>
       </c>
       <c r="D8" t="n">
-        <v>40263.01</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1165.150000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7732.960000000001</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8898.120000000003</v>
+        <v>31364.89</v>
       </c>
     </row>
     <row r="9">
@@ -655,15 +577,6 @@
       <c r="D9" t="n">
         <v>53240.39</v>
       </c>
-      <c r="E9" t="n">
-        <v>898.9399999999987</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12078.44</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12977.38</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -680,64 +593,37 @@
       <c r="D10" t="n">
         <v>27794.09</v>
       </c>
-      <c r="E10" t="n">
-        <v>1257.93</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7020</v>
-      </c>
-      <c r="G10" t="n">
-        <v>27794.09</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22994.56</v>
+        <v>23917.7</v>
       </c>
       <c r="C11" t="n">
-        <v>16965.23</v>
+        <v>27167.71</v>
       </c>
       <c r="D11" t="n">
-        <v>39959.79</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2220.470000000001</v>
-      </c>
-      <c r="F11" t="n">
-        <v>9945.23</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12165.7</v>
+        <v>51085.41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23917.7</v>
+        <v>22994.56</v>
       </c>
       <c r="C12" t="n">
-        <v>27167.71</v>
+        <v>16965.23</v>
       </c>
       <c r="D12" t="n">
-        <v>51085.41</v>
-      </c>
-      <c r="E12" t="n">
-        <v>923.1399999999994</v>
-      </c>
-      <c r="F12" t="n">
-        <v>10202.48</v>
-      </c>
-      <c r="G12" t="n">
-        <v>11125.62</v>
+        <v>39959.79</v>
       </c>
     </row>
     <row r="13">
@@ -755,15 +641,6 @@
       <c r="D13" t="n">
         <v>65568.16</v>
       </c>
-      <c r="E13" t="n">
-        <v>661.4699999999975</v>
-      </c>
-      <c r="F13" t="n">
-        <v>13821.28</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14482.75</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -780,64 +657,37 @@
       <c r="D14" t="n">
         <v>33682.52924</v>
       </c>
-      <c r="E14" t="n">
-        <v>1087.054680000001</v>
-      </c>
-      <c r="F14" t="n">
-        <v>8016.30456</v>
-      </c>
-      <c r="G14" t="n">
-        <v>33682.52924</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28036.27</v>
+        <v>28746.88623</v>
       </c>
       <c r="C15" t="n">
-        <v>20511.54</v>
+        <v>33428.60046</v>
       </c>
       <c r="D15" t="n">
-        <v>48547.81</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2370.045320000001</v>
-      </c>
-      <c r="F15" t="n">
-        <v>12495.23544</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14865.28075999999</v>
+        <v>62175.48669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28746.88623</v>
+        <v>28036.27</v>
       </c>
       <c r="C16" t="n">
-        <v>33428.60046</v>
+        <v>20511.54</v>
       </c>
       <c r="D16" t="n">
-        <v>62175.48669</v>
-      </c>
-      <c r="E16" t="n">
-        <v>710.6162299999996</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12917.06046</v>
-      </c>
-      <c r="G16" t="n">
-        <v>13627.67669</v>
+        <v>48547.81</v>
       </c>
     </row>
     <row r="17">
@@ -855,15 +705,6 @@
       <c r="D17" t="n">
         <v>80274.18187</v>
       </c>
-      <c r="E17" t="n">
-        <v>559.4525399999984</v>
-      </c>
-      <c r="F17" t="n">
-        <v>17539.24264</v>
-      </c>
-      <c r="G17" t="n">
-        <v>18098.69518</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -880,64 +721,37 @@
       <c r="D18" t="n">
         <v>43510.52</v>
       </c>
-      <c r="E18" t="n">
-        <v>3342.271230000002</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10861.91</v>
-      </c>
-      <c r="G18" t="n">
-        <v>43510.52</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35186.9</v>
+        <v>36115.15</v>
       </c>
       <c r="C19" t="n">
-        <v>26721.42</v>
+        <v>41836.17</v>
       </c>
       <c r="D19" t="n">
-        <v>61908.32</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2538.290000000001</v>
-      </c>
-      <c r="F19" t="n">
-        <v>15859.51</v>
-      </c>
-      <c r="G19" t="n">
-        <v>18397.8</v>
+        <v>77951.32000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36115.15</v>
+        <v>35186.9</v>
       </c>
       <c r="C20" t="n">
-        <v>41836.17</v>
+        <v>26721.42</v>
       </c>
       <c r="D20" t="n">
-        <v>77951.32000000001</v>
-      </c>
-      <c r="E20" t="n">
-        <v>928.25</v>
-      </c>
-      <c r="F20" t="n">
-        <v>15114.75</v>
-      </c>
-      <c r="G20" t="n">
-        <v>16043.00000000001</v>
+        <v>61908.32</v>
       </c>
     </row>
     <row r="21">
@@ -955,15 +769,6 @@
       <c r="D21" t="n">
         <v>101141.85</v>
       </c>
-      <c r="E21" t="n">
-        <v>1607.309999999998</v>
-      </c>
-      <c r="F21" t="n">
-        <v>21583.22</v>
-      </c>
-      <c r="G21" t="n">
-        <v>23190.53</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -980,64 +785,37 @@
       <c r="D22" t="n">
         <v>55444.25</v>
       </c>
-      <c r="E22" t="n">
-        <v>4427.489999999998</v>
-      </c>
-      <c r="F22" t="n">
-        <v>13294.3</v>
-      </c>
-      <c r="G22" t="n">
-        <v>55444.25</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>45144.9</v>
+        <v>44913</v>
       </c>
       <c r="C23" t="n">
-        <v>32761.8</v>
+        <v>53457</v>
       </c>
       <c r="D23" t="n">
-        <v>77906.8</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2994.950000000004</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19467.5</v>
-      </c>
-      <c r="G23" t="n">
-        <v>22462.55</v>
+        <v>98370</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>44913</v>
+        <v>45144.9</v>
       </c>
       <c r="C24" t="n">
-        <v>53457</v>
+        <v>32761.8</v>
       </c>
       <c r="D24" t="n">
-        <v>98370</v>
-      </c>
-      <c r="E24" t="n">
-        <v>44913</v>
-      </c>
-      <c r="F24" t="n">
-        <v>20695.2</v>
-      </c>
-      <c r="G24" t="n">
-        <v>20463.2</v>
+        <v>77906.8</v>
       </c>
     </row>
     <row r="25">
@@ -1055,15 +833,6 @@
       <c r="D25" t="n">
         <v>131931.4</v>
       </c>
-      <c r="E25" t="n">
-        <v>2119.800000000003</v>
-      </c>
-      <c r="F25" t="n">
-        <v>31441.60000000001</v>
-      </c>
-      <c r="G25" t="n">
-        <v>33561.39999999999</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1080,64 +849,37 @@
       <c r="D26" t="n">
         <v>73412.3</v>
       </c>
-      <c r="E26" t="n">
-        <v>8767.299999999996</v>
-      </c>
-      <c r="F26" t="n">
-        <v>17612.3</v>
-      </c>
-      <c r="G26" t="n">
-        <v>73412.3</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>59548.4</v>
+        <v>60409.39</v>
       </c>
       <c r="C27" t="n">
-        <v>42982.4</v>
+        <v>69691.42999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>102530.8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3748.300000000003</v>
-      </c>
-      <c r="F27" t="n">
-        <v>25370.1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>29118.5</v>
+        <v>130100.82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60409.39</v>
+        <v>59548.4</v>
       </c>
       <c r="C28" t="n">
-        <v>69691.42999999999</v>
+        <v>42982.4</v>
       </c>
       <c r="D28" t="n">
-        <v>130100.82</v>
-      </c>
-      <c r="E28" t="n">
-        <v>860.989999999998</v>
-      </c>
-      <c r="F28" t="n">
-        <v>26709.02999999999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>27570.02</v>
+        <v>102530.8</v>
       </c>
     </row>
     <row r="29">
@@ -1155,15 +897,6 @@
       <c r="D29" t="n">
         <v>169074.32</v>
       </c>
-      <c r="E29" t="n">
-        <v>980.9800000000032</v>
-      </c>
-      <c r="F29" t="n">
-        <v>37992.52</v>
-      </c>
-      <c r="G29" t="n">
-        <v>38973.5</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1180,64 +913,37 @@
       <c r="D30" t="n">
         <v>100266.66</v>
       </c>
-      <c r="E30" t="n">
-        <v>16912.10999999999</v>
-      </c>
-      <c r="F30" t="n">
-        <v>21964.18</v>
-      </c>
-      <c r="G30" t="n">
-        <v>100266.66</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80506.92</v>
+        <v>79623.07000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>52499.49</v>
+        <v>83461.28999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>133006.41</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2204.440000000002</v>
-      </c>
-      <c r="F31" t="n">
-        <v>30535.31</v>
-      </c>
-      <c r="G31" t="n">
-        <v>32739.75</v>
+        <v>163084.36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79623.07000000001</v>
+        <v>80506.92</v>
       </c>
       <c r="C32" t="n">
-        <v>83461.28999999999</v>
+        <v>52499.49</v>
       </c>
       <c r="D32" t="n">
-        <v>163084.36</v>
-      </c>
-      <c r="E32" t="n">
-        <v>79623.07000000001</v>
-      </c>
-      <c r="F32" t="n">
-        <v>30961.8</v>
-      </c>
-      <c r="G32" t="n">
-        <v>30077.94999999998</v>
+        <v>133006.41</v>
       </c>
     </row>
     <row r="33">
@@ -1255,15 +961,6 @@
       <c r="D33" t="n">
         <v>208531.68</v>
       </c>
-      <c r="E33" t="n">
-        <v>1986.319999999992</v>
-      </c>
-      <c r="F33" t="n">
-        <v>43461</v>
-      </c>
-      <c r="G33" t="n">
-        <v>45447.32000000001</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1280,64 +977,37 @@
       <c r="D34" t="n">
         <v>116458.82</v>
       </c>
-      <c r="E34" t="n">
-        <v>10735.12</v>
-      </c>
-      <c r="F34" t="n">
-        <v>24114.3</v>
-      </c>
-      <c r="G34" t="n">
-        <v>116458.82</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97275.42</v>
+        <v>97810.87</v>
       </c>
       <c r="C35" t="n">
-        <v>58494.39</v>
+        <v>93822.13</v>
       </c>
       <c r="D35" t="n">
-        <v>155769.81</v>
-      </c>
-      <c r="E35" t="n">
-        <v>4930.910000000003</v>
-      </c>
-      <c r="F35" t="n">
-        <v>34380.09</v>
-      </c>
-      <c r="G35" t="n">
-        <v>39310.98999999999</v>
+        <v>191632.99</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97810.87</v>
+        <v>97275.42</v>
       </c>
       <c r="C36" t="n">
-        <v>93822.13</v>
+        <v>58494.39</v>
       </c>
       <c r="D36" t="n">
-        <v>191632.99</v>
-      </c>
-      <c r="E36" t="n">
-        <v>535.4499999999971</v>
-      </c>
-      <c r="F36" t="n">
-        <v>35327.74000000001</v>
-      </c>
-      <c r="G36" t="n">
-        <v>35863.17999999999</v>
+        <v>155769.81</v>
       </c>
     </row>
     <row r="37">
@@ -1355,15 +1025,6 @@
       <c r="D37" t="n">
         <v>245687.5</v>
       </c>
-      <c r="E37" t="n">
-        <v>2846.389999999999</v>
-      </c>
-      <c r="F37" t="n">
-        <v>51208.10000000001</v>
-      </c>
-      <c r="G37" t="n">
-        <v>54054.51000000001</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1380,64 +1041,37 @@
       <c r="D38" t="n">
         <v>135725.24</v>
       </c>
-      <c r="E38" t="n">
-        <v>5362.62000000001</v>
-      </c>
-      <c r="F38" t="n">
-        <v>29705.36</v>
-      </c>
-      <c r="G38" t="n">
-        <v>135725.24</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>111434.81</v>
+        <v>112350.24</v>
       </c>
       <c r="C39" t="n">
-        <v>73763.60000000001</v>
+        <v>116970.29</v>
       </c>
       <c r="D39" t="n">
-        <v>185198.42</v>
-      </c>
-      <c r="E39" t="n">
-        <v>5414.929999999993</v>
-      </c>
-      <c r="F39" t="n">
-        <v>44058.24000000001</v>
-      </c>
-      <c r="G39" t="n">
-        <v>49473.18000000002</v>
+        <v>229320.53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>112350.24</v>
+        <v>111434.81</v>
       </c>
       <c r="C40" t="n">
-        <v>116970.29</v>
+        <v>73763.60000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>229320.53</v>
-      </c>
-      <c r="E40" t="n">
-        <v>915.4300000000076</v>
-      </c>
-      <c r="F40" t="n">
-        <v>43206.68999999999</v>
-      </c>
-      <c r="G40" t="n">
-        <v>44122.10999999999</v>
+        <v>185198.42</v>
       </c>
     </row>
     <row r="41">
@@ -1455,15 +1089,6 @@
       <c r="D41" t="n">
         <v>289674.06</v>
       </c>
-      <c r="E41" t="n">
-        <v>2474.970000000001</v>
-      </c>
-      <c r="F41" t="n">
-        <v>57878.56000000001</v>
-      </c>
-      <c r="G41" t="n">
-        <v>60353.53</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1480,64 +1105,37 @@
       <c r="D42" t="n">
         <v>157456.64</v>
       </c>
-      <c r="E42" t="n">
-        <v>9049.539999999994</v>
-      </c>
-      <c r="F42" t="n">
-        <v>33581.89</v>
-      </c>
-      <c r="G42" t="n">
-        <v>157456.64</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134021.99</v>
+        <v>135556.3</v>
       </c>
       <c r="C43" t="n">
-        <v>82861.69</v>
+        <v>125700.63</v>
       </c>
       <c r="D43" t="n">
-        <v>216883.69</v>
-      </c>
-      <c r="E43" t="n">
-        <v>10147.23999999999</v>
-      </c>
-      <c r="F43" t="n">
-        <v>49279.8</v>
-      </c>
-      <c r="G43" t="n">
-        <v>59427.04999999999</v>
+        <v>261256.93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>135556.3</v>
+        <v>134021.99</v>
       </c>
       <c r="C44" t="n">
-        <v>125700.63</v>
+        <v>82861.69</v>
       </c>
       <c r="D44" t="n">
-        <v>261256.93</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1534.309999999998</v>
-      </c>
-      <c r="F44" t="n">
-        <v>42838.94</v>
-      </c>
-      <c r="G44" t="n">
-        <v>44373.23999999999</v>
+        <v>216883.69</v>
       </c>
     </row>
     <row r="45">
@@ -1555,15 +1153,6 @@
       <c r="D45" t="n">
         <v>323613.77</v>
       </c>
-      <c r="E45" t="n">
-        <v>3374.150000000023</v>
-      </c>
-      <c r="F45" t="n">
-        <v>58982.67999999999</v>
-      </c>
-      <c r="G45" t="n">
-        <v>62356.84000000003</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1580,64 +1169,37 @@
       <c r="D46" t="n">
         <v>172031.45</v>
       </c>
-      <c r="E46" t="n">
-        <v>844.0599999999977</v>
-      </c>
-      <c r="F46" t="n">
-        <v>32256.94</v>
-      </c>
-      <c r="G46" t="n">
-        <v>172031.45</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>147462.93</v>
+        <v>150135.27</v>
       </c>
       <c r="C47" t="n">
-        <v>75474.81</v>
+        <v>117178.74</v>
       </c>
       <c r="D47" t="n">
-        <v>222937.74</v>
-      </c>
-      <c r="E47" t="n">
-        <v>7688.419999999984</v>
-      </c>
-      <c r="F47" t="n">
-        <v>43217.87</v>
-      </c>
-      <c r="G47" t="n">
-        <v>50906.28999999998</v>
+        <v>267314.01</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>150135.27</v>
+        <v>147462.93</v>
       </c>
       <c r="C48" t="n">
-        <v>117178.74</v>
+        <v>75474.81</v>
       </c>
       <c r="D48" t="n">
-        <v>267314.01</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2672.339999999997</v>
-      </c>
-      <c r="F48" t="n">
-        <v>41703.93000000001</v>
-      </c>
-      <c r="G48" t="n">
-        <v>44376.27000000002</v>
+        <v>222937.74</v>
       </c>
     </row>
     <row r="49">
@@ -1655,15 +1217,6 @@
       <c r="D49" t="n">
         <v>338001.42</v>
       </c>
-      <c r="E49" t="n">
-        <v>3464.600000000006</v>
-      </c>
-      <c r="F49" t="n">
-        <v>67222.8</v>
-      </c>
-      <c r="G49" t="n">
-        <v>70687.40999999997</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1680,64 +1233,37 @@
       <c r="D50" t="n">
         <v>184072.67</v>
       </c>
-      <c r="E50" t="n">
-        <v>147652.73</v>
-      </c>
-      <c r="F50" t="n">
-        <v>36419.95</v>
-      </c>
-      <c r="G50" t="n">
-        <v>184072.67</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>156559.81</v>
+        <v>158419.33</v>
       </c>
       <c r="C51" t="n">
-        <v>87849.28999999999</v>
+        <v>136756.75</v>
       </c>
       <c r="D51" t="n">
-        <v>244409.11</v>
-      </c>
-      <c r="E51" t="n">
-        <v>8907.079999999987</v>
-      </c>
-      <c r="F51" t="n">
-        <v>51429.34</v>
-      </c>
-      <c r="G51" t="n">
-        <v>60336.43999999997</v>
+        <v>295176.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>158419.33</v>
+        <v>156559.81</v>
       </c>
       <c r="C52" t="n">
-        <v>136756.75</v>
+        <v>87849.28999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>295176.08</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1859.51999999999</v>
-      </c>
-      <c r="F52" t="n">
-        <v>48907.46000000001</v>
-      </c>
-      <c r="G52" t="n">
-        <v>50766.97000000003</v>
+        <v>244409.11</v>
       </c>
     </row>
     <row r="53">
@@ -1755,15 +1281,6 @@
       <c r="D53" t="n">
         <v>374272.24</v>
       </c>
-      <c r="E53" t="n">
-        <v>3084.610000000015</v>
-      </c>
-      <c r="F53" t="n">
-        <v>76011.54999999999</v>
-      </c>
-      <c r="G53" t="n">
-        <v>79096.15999999997</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1780,64 +1297,37 @@
       <c r="D54" t="n">
         <v>218649.82</v>
       </c>
-      <c r="E54" t="n">
-        <v>12651.51000000001</v>
-      </c>
-      <c r="F54" t="n">
-        <v>44494.37</v>
-      </c>
-      <c r="G54" t="n">
-        <v>218649.82</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>181581.9</v>
+        <v>184929.46</v>
       </c>
       <c r="C55" t="n">
-        <v>107079.04</v>
+        <v>166849.85</v>
       </c>
       <c r="D55" t="n">
-        <v>288660.95</v>
-      </c>
-      <c r="E55" t="n">
-        <v>7426.449999999983</v>
-      </c>
-      <c r="F55" t="n">
-        <v>62584.66999999999</v>
-      </c>
-      <c r="G55" t="n">
-        <v>70011.13</v>
+        <v>351779.32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>184929.46</v>
+        <v>181581.9</v>
       </c>
       <c r="C56" t="n">
-        <v>166849.85</v>
+        <v>107079.04</v>
       </c>
       <c r="D56" t="n">
-        <v>351779.32</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3347.559999999998</v>
-      </c>
-      <c r="F56" t="n">
-        <v>59770.81000000001</v>
-      </c>
-      <c r="G56" t="n">
-        <v>63118.37</v>
+        <v>288660.95</v>
       </c>
     </row>
     <row r="57">
@@ -1855,15 +1345,6 @@
       <c r="D57" t="n">
         <v>439524.36</v>
       </c>
-      <c r="E57" t="n">
-        <v>184858.64</v>
-      </c>
-      <c r="F57" t="n">
-        <v>87815.85999999999</v>
-      </c>
-      <c r="G57" t="n">
-        <v>87745.03999999998</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1880,64 +1361,37 @@
       <c r="D58" t="n">
         <v>259316.79</v>
       </c>
-      <c r="E58" t="n">
-        <v>22675.60999999999</v>
-      </c>
-      <c r="F58" t="n">
-        <v>51782.53</v>
-      </c>
-      <c r="G58" t="n">
-        <v>259316.79</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>217975.91</v>
+        <v>222093.49</v>
       </c>
       <c r="C59" t="n">
-        <v>117401.92</v>
+        <v>179288.69</v>
       </c>
       <c r="D59" t="n">
-        <v>335377.82</v>
-      </c>
-      <c r="E59" t="n">
-        <v>10441.66</v>
-      </c>
-      <c r="F59" t="n">
-        <v>65619.39</v>
-      </c>
-      <c r="G59" t="n">
-        <v>76061.03</v>
+        <v>401382.19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>222093.49</v>
+        <v>217975.91</v>
       </c>
       <c r="C60" t="n">
-        <v>179288.69</v>
+        <v>117401.92</v>
       </c>
       <c r="D60" t="n">
-        <v>401382.19</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4117.579999999987</v>
-      </c>
-      <c r="F60" t="n">
-        <v>61886.77</v>
-      </c>
-      <c r="G60" t="n">
-        <v>66004.37</v>
+        <v>335377.82</v>
       </c>
     </row>
     <row r="61">
@@ -1955,15 +1409,6 @@
       <c r="D61" t="n">
         <v>494409.05</v>
       </c>
-      <c r="E61" t="n">
-        <v>221554.98</v>
-      </c>
-      <c r="F61" t="n">
-        <v>93565.38</v>
-      </c>
-      <c r="G61" t="n">
-        <v>93026.85999999999</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1980,64 +1425,37 @@
       <c r="D62" t="n">
         <v>293960.64</v>
       </c>
-      <c r="E62" t="n">
-        <v>17193.32999999999</v>
-      </c>
-      <c r="F62" t="n">
-        <v>55212.33</v>
-      </c>
-      <c r="G62" t="n">
-        <v>293960.64</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>243672.52</v>
+        <v>249045.82</v>
       </c>
       <c r="C63" t="n">
-        <v>120305.68</v>
+        <v>187135.27</v>
       </c>
       <c r="D63" t="n">
-        <v>363978.2</v>
-      </c>
-      <c r="E63" t="n">
-        <v>4924.209999999992</v>
-      </c>
-      <c r="F63" t="n">
-        <v>65093.34999999999</v>
-      </c>
-      <c r="G63" t="n">
-        <v>70017.56</v>
+        <v>436181.09</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>249045.82</v>
+        <v>243672.52</v>
       </c>
       <c r="C64" t="n">
-        <v>187135.27</v>
+        <v>120305.68</v>
       </c>
       <c r="D64" t="n">
-        <v>436181.09</v>
-      </c>
-      <c r="E64" t="n">
-        <v>5373.300000000017</v>
-      </c>
-      <c r="F64" t="n">
-        <v>66829.59</v>
-      </c>
-      <c r="G64" t="n">
-        <v>72202.89000000001</v>
+        <v>363978.2</v>
       </c>
     </row>
     <row r="65">
@@ -2055,15 +1473,6 @@
       <c r="D65" t="n">
         <v>545038.89</v>
       </c>
-      <c r="E65" t="n">
-        <v>6758.079999999987</v>
-      </c>
-      <c r="F65" t="n">
-        <v>102099.72</v>
-      </c>
-      <c r="G65" t="n">
-        <v>108857.8</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2080,64 +1489,37 @@
       <c r="D66" t="n">
         <v>307949.51</v>
       </c>
-      <c r="E66" t="n">
-        <v>5082.309999999998</v>
-      </c>
-      <c r="F66" t="n">
-        <v>47063.3</v>
-      </c>
-      <c r="G66" t="n">
-        <v>307949.51</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>264883.31</v>
+        <v>263268.08</v>
       </c>
       <c r="C67" t="n">
-        <v>125992.08</v>
+        <v>203529.18</v>
       </c>
       <c r="D67" t="n">
-        <v>390875.38</v>
-      </c>
-      <c r="E67" t="n">
-        <v>3997.100000000006</v>
-      </c>
-      <c r="F67" t="n">
-        <v>78928.78</v>
-      </c>
-      <c r="G67" t="n">
-        <v>82925.87</v>
+        <v>466797.26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>263268.08</v>
+        <v>264883.31</v>
       </c>
       <c r="C68" t="n">
-        <v>203529.18</v>
+        <v>125992.08</v>
       </c>
       <c r="D68" t="n">
-        <v>466797.26</v>
-      </c>
-      <c r="E68" t="n">
-        <v>263268.08</v>
-      </c>
-      <c r="F68" t="n">
-        <v>77537.09999999999</v>
-      </c>
-      <c r="G68" t="n">
-        <v>75921.88</v>
+        <v>390875.38</v>
       </c>
     </row>
     <row r="69">
@@ -2155,15 +1537,6 @@
       <c r="D69" t="n">
         <v>595576.76</v>
       </c>
-      <c r="E69" t="n">
-        <v>7134.260000000009</v>
-      </c>
-      <c r="F69" t="n">
-        <v>121645.24</v>
-      </c>
-      <c r="G69" t="n">
-        <v>128779.5</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2180,64 +1553,37 @@
       <c r="D70" t="n">
         <v>345047.85</v>
       </c>
-      <c r="E70" t="n">
-        <v>12568.64999999997</v>
-      </c>
-      <c r="F70" t="n">
-        <v>62076.86</v>
-      </c>
-      <c r="G70" t="n">
-        <v>345047.85</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>299480.45</v>
+        <v>303250.99</v>
       </c>
       <c r="C71" t="n">
-        <v>144134.03</v>
+        <v>219413.7</v>
       </c>
       <c r="D71" t="n">
-        <v>443614.48</v>
-      </c>
-      <c r="E71" t="n">
-        <v>16509.46000000002</v>
-      </c>
-      <c r="F71" t="n">
-        <v>82057.17</v>
-      </c>
-      <c r="G71" t="n">
-        <v>98566.63</v>
+        <v>522664.69</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>303250.99</v>
+        <v>299480.45</v>
       </c>
       <c r="C72" t="n">
-        <v>219413.7</v>
+        <v>144134.03</v>
       </c>
       <c r="D72" t="n">
-        <v>522664.69</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3770.539999999979</v>
-      </c>
-      <c r="F72" t="n">
-        <v>75279.67000000001</v>
-      </c>
-      <c r="G72" t="n">
-        <v>79050.21000000002</v>
+        <v>443614.48</v>
       </c>
     </row>
     <row r="73">
@@ -2247,22 +1593,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>312328.64</v>
+        <v>312327.3</v>
       </c>
       <c r="C73" t="n">
-        <v>344558.1</v>
+        <v>344559.2</v>
       </c>
       <c r="D73" t="n">
-        <v>656886.74</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9077.650000000023</v>
-      </c>
-      <c r="F73" t="n">
-        <v>125144.4</v>
-      </c>
-      <c r="G73" t="n">
-        <v>134222.05</v>
+        <v>656886.49</v>
       </c>
     </row>
   </sheetData>
